--- a/Test Data Driven/AI-Generated/TestCase-015.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-015.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,9 +449,10 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="23" customWidth="1" min="2" max="2"/>
     <col width="62" customWidth="1" min="3" max="3"/>
-    <col width="90" customWidth="1" min="4" max="4"/>
-    <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="41" customWidth="1" min="4" max="4"/>
+    <col width="90" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,15 +473,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>link_categoryPhone_internalRoleLinkName</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>link_iPhone15HotNew_class</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>link_iPhone15HotNew_internalRoleLinkName</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>var_1_input_email</t>
         </is>
@@ -502,17 +508,18 @@
           <t>horizontal-menu__element\ is-link\ is-root\ children-visible</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>products__item\ in-stock\ products__item_3-in-row"]:nth-child(2) [class="products__image</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>iPhone 15 Hot! New!</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
